--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1455080043926381</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.499322313569441</v>
+        <v>-2.255779767502588</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2379413775350295</v>
+        <v>-0.2219614558042304</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005048046484197577</v>
+        <v>-0.002555910599005013</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1399833977508756</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.629664191952531</v>
+        <v>-2.482637323536321</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2930227039314699</v>
+        <v>-0.2707313230376819</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01674205561948809</v>
+        <v>0.004608217670077676</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1445566855085638</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.813831570058638</v>
+        <v>-2.656736741031347</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2124064384822953</v>
+        <v>-0.1916325402322565</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.002244241133186755</v>
+        <v>-0.007053465669345192</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1594824728344523</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.973926598894852</v>
+        <v>-2.784408386691635</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.12371604311433</v>
+        <v>-0.04567181315900198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004602118463310195</v>
+        <v>-0.004252100001041362</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1772696919204234</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.073317442615685</v>
+        <v>-2.752134434081511</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09973823154933358</v>
+        <v>-0.04130722079619287</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02114690274696257</v>
+        <v>-0.05785924812178167</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1881636801649527</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.84267532878273</v>
+        <v>-2.431050232696971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006700245591323514</v>
+        <v>0.1015795060662514</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01842780036383517</v>
+        <v>-0.02388422674420785</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1875647061963094</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.60100401935214</v>
+        <v>-2.145069405941987</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01408341138954331</v>
+        <v>0.1059459281910907</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03280972992155438</v>
+        <v>-0.04704108507830137</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1694592682301476</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.07734442391656</v>
+        <v>-1.611541903877301</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03861503092902695</v>
+        <v>0.155316567291139</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03296342993209489</v>
+        <v>-0.06505631210740875</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1251319079836152</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.592000045394293</v>
+        <v>-1.094458473178418</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07291757971001447</v>
+        <v>0.08755194042172282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1148111252276238</v>
+        <v>0.01732628362162818</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.04256985447213064</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.051742068661691</v>
+        <v>-0.5384486850481209</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.175050626793507</v>
+        <v>0.01503542155976247</v>
       </c>
       <c r="G11" t="n">
-        <v>0.19341648220556</v>
+        <v>0.1099341994963463</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.08851134596742581</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5017009642740504</v>
+        <v>0.05473027904387958</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5012941471826595</v>
+        <v>-0.2904146831176952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.267216884092075</v>
+        <v>0.2036210650482317</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.272626544705913</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009614446584825735</v>
+        <v>0.5314326914973034</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7646658243712686</v>
+        <v>-0.4032146329168345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3416979574538409</v>
+        <v>0.2928573394218866</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5055239816178547</v>
       </c>
       <c r="E14" t="n">
-        <v>0.668193985003167</v>
+        <v>1.162832334797721</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.033563382891215</v>
+        <v>-0.6726245248052495</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5628368972223842</v>
+        <v>0.5213952269200607</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7715281801338177</v>
       </c>
       <c r="E15" t="n">
-        <v>1.136162943286235</v>
+        <v>1.621929996837489</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.373566103827127</v>
+        <v>-0.9623862498353936</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6265278638918002</v>
+        <v>0.5718948291927696</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.054654022474163</v>
       </c>
       <c r="E16" t="n">
-        <v>1.698596415984043</v>
+        <v>2.196719242604859</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.616541423664604</v>
+        <v>-1.217181832388248</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6704415426969836</v>
+        <v>0.595248081984776</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.334156113871074</v>
       </c>
       <c r="E17" t="n">
-        <v>2.161665881470794</v>
+        <v>2.652491007194319</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.986973697084154</v>
+        <v>-1.558455628014503</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7141740750611728</v>
+        <v>0.6482465292701217</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.591466012970149</v>
       </c>
       <c r="E18" t="n">
-        <v>2.478659954797063</v>
+        <v>2.917740630146636</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.344293285874296</v>
+        <v>-1.877206272889806</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8952656231944387</v>
+        <v>0.7941798099129226</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.809140171679812</v>
       </c>
       <c r="E19" t="n">
-        <v>2.57663029326175</v>
+        <v>2.97379478002249</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.70631658292352</v>
+        <v>-2.253179675657611</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9703005045306918</v>
+        <v>0.8502571367744926</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.974245678612838</v>
       </c>
       <c r="E20" t="n">
-        <v>2.865554597202719</v>
+        <v>3.230087107916084</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.008298068712312</v>
+        <v>-2.515433368245741</v>
       </c>
       <c r="G20" t="n">
-        <v>1.093214158991668</v>
+        <v>0.9527250303095197</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.079483375547754</v>
       </c>
       <c r="E21" t="n">
-        <v>3.132321702798784</v>
+        <v>3.473956571465674</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.318143261786416</v>
+        <v>-2.815191693167786</v>
       </c>
       <c r="G21" t="n">
-        <v>1.265815001383924</v>
+        <v>1.091586280705427</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.127312950102235</v>
       </c>
       <c r="E22" t="n">
-        <v>3.244969172428736</v>
+        <v>3.551834902996927</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.561724537816243</v>
+        <v>-3.036763981577159</v>
       </c>
       <c r="G22" t="n">
-        <v>1.246439651245668</v>
+        <v>1.000606243116949</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.12638909183518</v>
       </c>
       <c r="E23" t="n">
-        <v>3.366850841104654</v>
+        <v>3.635511140481346</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.812185414119448</v>
+        <v>-3.299390945619459</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432298949309073</v>
+        <v>1.203104177242042</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.085495397575411</v>
       </c>
       <c r="E24" t="n">
-        <v>3.393506814361252</v>
+        <v>3.596421324308563</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.941139418002598</v>
+        <v>-3.379913588244752</v>
       </c>
       <c r="G24" t="n">
-        <v>1.470180512621219</v>
+        <v>1.261721823722267</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.015921141893176</v>
       </c>
       <c r="E25" t="n">
-        <v>3.429129841407399</v>
+        <v>3.62422882780286</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.992366350682329</v>
+        <v>-3.447907240328287</v>
       </c>
       <c r="G25" t="n">
-        <v>1.508122458080362</v>
+        <v>1.306737019269658</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.92929507101108</v>
       </c>
       <c r="E26" t="n">
-        <v>3.218192434878143</v>
+        <v>3.352011471039374</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.998357601490026</v>
+        <v>-3.434776563038917</v>
       </c>
       <c r="G26" t="n">
-        <v>1.48740345269123</v>
+        <v>1.300892149424381</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.838142144228793</v>
       </c>
       <c r="E27" t="n">
-        <v>3.279750508940971</v>
+        <v>3.366250679158734</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.931830503673731</v>
+        <v>-3.413834021721757</v>
       </c>
       <c r="G27" t="n">
-        <v>1.43120048217025</v>
+        <v>1.248640245047375</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.749998507893906</v>
       </c>
       <c r="E28" t="n">
-        <v>3.129921055015104</v>
+        <v>3.208057992913298</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.803275082952836</v>
+        <v>-3.293356085483375</v>
       </c>
       <c r="G28" t="n">
-        <v>1.354669465413934</v>
+        <v>1.147904526234312</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.669236257846888</v>
       </c>
       <c r="E29" t="n">
-        <v>2.920336452546876</v>
+        <v>2.94027841899383</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.759235760488242</v>
+        <v>-3.205672364192382</v>
       </c>
       <c r="G29" t="n">
-        <v>1.326076384087985</v>
+        <v>1.133362797459285</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.595787025888616</v>
       </c>
       <c r="E30" t="n">
-        <v>2.729861884722518</v>
+        <v>2.757854804102546</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.485738790144939</v>
+        <v>-2.921125765908772</v>
       </c>
       <c r="G30" t="n">
-        <v>1.199144572208593</v>
+        <v>0.9887951292117232</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.526387247539655</v>
       </c>
       <c r="E31" t="n">
-        <v>2.5933957928242</v>
+        <v>2.597538374060673</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.45433244969749</v>
+        <v>-2.935649806984174</v>
       </c>
       <c r="G31" t="n">
-        <v>1.018424465767467</v>
+        <v>0.8253077215714365</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.457681789290919</v>
       </c>
       <c r="E32" t="n">
-        <v>2.329973492219421</v>
+        <v>2.285283384392737</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.316963370237247</v>
+        <v>-2.782842110393745</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9866329604126512</v>
+        <v>0.7917193899029209</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.385379998270149</v>
       </c>
       <c r="E33" t="n">
-        <v>2.047116069250065</v>
+        <v>2.02784562546821</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.235974748214917</v>
+        <v>-2.73094091040587</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8061635313696685</v>
+        <v>0.6235929255952886</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.310102639140819</v>
       </c>
       <c r="E34" t="n">
-        <v>1.813398125444269</v>
+        <v>1.762272744557217</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.963672002556686</v>
+        <v>-2.445290050737007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6761668680896176</v>
+        <v>0.5121018655684505</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.230259977243363</v>
       </c>
       <c r="E35" t="n">
-        <v>1.640754588604641</v>
+        <v>1.612640904930616</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.877080344237411</v>
+        <v>-2.383581936187699</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6471279347489658</v>
+        <v>0.4945696957153276</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.147968486872431</v>
       </c>
       <c r="E36" t="n">
-        <v>1.435815142010526</v>
+        <v>1.411864166955306</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.646900550277431</v>
+        <v>-2.135304575907251</v>
       </c>
       <c r="G36" t="n">
-        <v>0.536372439058286</v>
+        <v>0.3749916974354871</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.061801807583852</v>
       </c>
       <c r="E37" t="n">
-        <v>1.180636529272673</v>
+        <v>1.173404699808472</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.590588403955314</v>
+        <v>-2.127758637294524</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5383900566569686</v>
+        <v>0.4055359150063531</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9720041084183347</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9620049734062415</v>
+        <v>0.9259672002999058</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.465035012805372</v>
+        <v>-1.960987416730626</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5055378992452879</v>
+        <v>0.3700275530474346</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8774213321181569</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8239658960825907</v>
+        <v>0.8174836591301123</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.339457834749038</v>
+        <v>-1.859244718880252</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3789750893753286</v>
+        <v>0.2264863812988397</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7785744831371961</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5910701253490518</v>
+        <v>0.5742790091181778</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.315844755748737</v>
+        <v>-1.87399443060605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3093117794391957</v>
+        <v>0.1612828113510885</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6771484568695928</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3462839510223095</v>
+        <v>0.3109658843145364</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.188646408533606</v>
+        <v>-1.78621281704644</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3089037425064513</v>
+        <v>0.2009544918494892</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5753538640957466</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08937865284858326</v>
+        <v>0.05937482499731604</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.187838873557592</v>
+        <v>-1.788905006913606</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3054540311587642</v>
+        <v>0.1936189758702404</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4775782936628431</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.01908842046293787</v>
+        <v>-0.02406476326452528</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.074738232864815</v>
+        <v>-1.663784659444155</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2262070376288891</v>
+        <v>0.104294262998457</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3862696029317636</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2085852854424687</v>
+        <v>-0.1712807070905273</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.00662839089236</v>
+        <v>-1.614560401306527</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2380486475679526</v>
+        <v>0.1266265085775871</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3044915232351613</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.2495176719797076</v>
+        <v>-0.2089475783244571</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.015250839499547</v>
+        <v>-1.631847992968274</v>
       </c>
       <c r="G45" t="n">
-        <v>0.212582629551691</v>
+        <v>0.07527606696081467</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2320704777063</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.4032225618856323</v>
+        <v>-0.3058499456841583</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.024966875880144</v>
+        <v>-1.654852981053857</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1166671138469681</v>
+        <v>-0.01313742441990707</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1692339029828254</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.4850830655153728</v>
+        <v>-0.3826792136514042</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.971301785295112</v>
+        <v>-1.601817328607229</v>
       </c>
       <c r="G47" t="n">
-        <v>0.102176008488111</v>
+        <v>-0.03260670234238183</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1139319753172465</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.4682157091999053</v>
+        <v>-0.31970063433243</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.871416295905436</v>
+        <v>-1.487606022362095</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04057950942264789</v>
+        <v>-0.06328998182754637</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06449948974331475</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5539040749969167</v>
+        <v>-0.3624158190078035</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.78764186119206</v>
+        <v>-1.433589617467257</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02258440977587319</v>
+        <v>-0.06921414136080027</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01902646862224585</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5959605453414023</v>
+        <v>-0.4071785073950202</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.745065128510309</v>
+        <v>-1.415973278560743</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0372945526638674</v>
+        <v>-0.1377704452686355</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.02386276971900986</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.6586384337667397</v>
+        <v>-0.4798969100009841</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.605964789209116</v>
+        <v>-1.246339090340189</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.03155946854040542</v>
+        <v>-0.107849566629406</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06435903722494353</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.764851240257</v>
+        <v>-0.5684549525820951</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.587168863713772</v>
+        <v>-1.226959470757196</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.107919707507232</v>
+        <v>-0.2100210387155337</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1024553907362974</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.8145622150946737</v>
+        <v>-0.6385811923118798</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.539829870387971</v>
+        <v>-1.17982968022352</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09904719142257802</v>
+        <v>-0.1972371013308944</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1370351899647811</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.9110303189325303</v>
+        <v>-0.7604024788407997</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.503526171866573</v>
+        <v>-1.132628528970665</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2058052669978511</v>
+        <v>-0.3103029765450959</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1686866569702755</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.9060625150204173</v>
+        <v>-0.7494757499168583</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.494898233973295</v>
+        <v>-1.145811354477898</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2158970145153244</v>
+        <v>-0.296203440260711</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1982290860133253</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.9307197782193112</v>
+        <v>-0.7843028304798491</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.511944906967726</v>
+        <v>-1.149986261510238</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2659897996966424</v>
+        <v>-0.3393205626620615</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.227062572481135</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.057924224641209</v>
+        <v>-0.8829526205784335</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.48301758911092</v>
+        <v>-1.104079971854119</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.227958805818694</v>
+        <v>-0.2831633361918375</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2558705040312138</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.09647060149101</v>
+        <v>-0.9128356841357046</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.436250091459232</v>
+        <v>-1.060362077586171</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3215938281130559</v>
+        <v>-0.4079909217364486</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2848777980648062</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.121535291701971</v>
+        <v>-0.9720290957347804</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.523670631978208</v>
+        <v>-1.189236486821006</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2984491681924973</v>
+        <v>-0.3617406368186433</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3146470362380359</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.315279644274376</v>
+        <v>-1.211502860967047</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.539999428336107</v>
+        <v>-1.172968072610105</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3234766532421772</v>
+        <v>-0.3673110423593833</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3445175529398811</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.481800797360807</v>
+        <v>-1.403027712196765</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.500516823247498</v>
+        <v>-1.126594583715596</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3087019347686322</v>
+        <v>-0.332870041584774</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3746958369453008</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.457227093294628</v>
+        <v>-1.400652681081508</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.448089871636265</v>
+        <v>-1.055468683996622</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3539287727908542</v>
+        <v>-0.3731906776832346</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4050971926192618</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.609158943793246</v>
+        <v>-1.565000686796687</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.499274414828962</v>
+        <v>-1.121351095657593</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3714450847063817</v>
+        <v>-0.3758420028650584</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4369261582280761</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.744342372508362</v>
+        <v>-1.755000736334535</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.522833210889033</v>
+        <v>-1.146022996952729</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3748862571645942</v>
+        <v>-0.3786458082160692</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4707092233257051</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.775234854785651</v>
+        <v>-1.763824458765049</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.566312016251695</v>
+        <v>-1.178167036458705</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3848828570564949</v>
+        <v>-0.3776284605272535</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5068862981977851</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.765645681905818</v>
+        <v>-1.791765534887554</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.601279988491014</v>
+        <v>-1.266748865946209</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4395128421521417</v>
+        <v>-0.4594322415340565</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5449718384448068</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.777962420052069</v>
+        <v>-1.80614990412798</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.661911593045862</v>
+        <v>-1.307975844170318</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4470685394956966</v>
+        <v>-0.4286897997432474</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5840010141646139</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.799783552104084</v>
+        <v>-1.843685032495732</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.661199815616097</v>
+        <v>-1.289560509177264</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4720984642280834</v>
+        <v>-0.4740624088072122</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6234250970642383</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.664651356725815</v>
+        <v>-1.6762825440314</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.812238132323279</v>
+        <v>-1.463123196476751</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4347328938084671</v>
+        <v>-0.4485573558676386</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6618380964509297</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.696022626734351</v>
+        <v>-1.664001181284401</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.756251073721868</v>
+        <v>-1.33604500363494</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4454400512887793</v>
+        <v>-0.4355068831472604</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6991635900212269</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.733427232077279</v>
+        <v>-1.665185037317969</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.830763253038148</v>
+        <v>-1.427936262714479</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4203759709984946</v>
+        <v>-0.3811653905317155</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7347299345655722</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.645402260167646</v>
+        <v>-1.549860015917093</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.005384152711794</v>
+        <v>-1.641559759904133</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4679723508498828</v>
+        <v>-0.4652307574079003</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7692214112281013</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.68450122515058</v>
+        <v>-1.559128370520956</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.047652875451788</v>
+        <v>-1.579600967956682</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4956310336990538</v>
+        <v>-0.4969448028367691</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8013682356179045</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.612453735289039</v>
+        <v>-1.502170928122839</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.133430289667604</v>
+        <v>-1.691592162938453</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5090767350179647</v>
+        <v>-0.4924801834829733</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8297882825473742</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.436891118090494</v>
+        <v>-1.302804936672848</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.231413436466503</v>
+        <v>-1.74842213191513</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5029726488850701</v>
+        <v>-0.4991155105253154</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8520745245333365</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.326500964885186</v>
+        <v>-1.170028254948179</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.271054011010389</v>
+        <v>-1.799064455626198</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4770412613924497</v>
+        <v>-0.4707157740538956</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8657357622425031</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.187192032712546</v>
+        <v>-1.069003433734338</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.292353050963109</v>
+        <v>-1.822121896889981</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4010237978459555</v>
+        <v>-0.3747892797769913</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8683993239452802</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9922985895851486</v>
+        <v>-0.8709390130085269</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.337860452496634</v>
+        <v>-1.898796245005334</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4307525514720094</v>
+        <v>-0.4286818707744497</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8586160953058805</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.7798290623159021</v>
+        <v>-0.6494304613098743</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.288577641974038</v>
+        <v>-1.826419397978348</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4022296110238864</v>
+        <v>-0.4053505751268062</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8366264619438157</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6033222879097514</v>
+        <v>-0.5043065454051181</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.475933075457506</v>
+        <v>-2.048962375144766</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3168980488227726</v>
+        <v>-0.3311281081319816</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8025006591408586</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2818867722154038</v>
+        <v>-0.1988759581893164</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.492491811910539</v>
+        <v>-2.013489998505775</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2926347943810581</v>
+        <v>-0.2846917974077682</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7580450668530077</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1072505485186549</v>
+        <v>0.1480023985355763</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.517260690593278</v>
+        <v>-2.043740844231126</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2028416624295323</v>
+        <v>-0.1956384992371377</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7044222138883461</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2636555572605431</v>
+        <v>0.3074472519303769</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.534555601303146</v>
+        <v>-2.070771308783246</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1057776660904928</v>
+        <v>-0.1015814118344662</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6440907355216997</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5533581199850427</v>
+        <v>0.5799073571232088</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.438812693149943</v>
+        <v>-1.970277118558176</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08080019453630638</v>
+        <v>-0.0687158361678971</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5792993471060671</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7240364924041889</v>
+        <v>0.7074734865064187</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.422733354348834</v>
+        <v>-1.963635692309066</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.02176475239250835</v>
+        <v>-0.01525994837499031</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5122833274944851</v>
       </c>
       <c r="E86" t="n">
-        <v>1.051163177933273</v>
+        <v>1.058827441157289</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.456571753494816</v>
+        <v>-1.971045618610878</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03467372351588099</v>
+        <v>-0.03826554638125031</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4448422215896808</v>
       </c>
       <c r="E87" t="n">
-        <v>1.2320668704981</v>
+        <v>1.26461711717479</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.377727917532272</v>
+        <v>-1.931450788117748</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05082495695066177</v>
+        <v>0.04500143432907131</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.377703923208098</v>
       </c>
       <c r="E88" t="n">
-        <v>1.450812481531084</v>
+        <v>1.451965231610138</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.293512510169607</v>
+        <v>-1.879807584576136</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08684870188143232</v>
+        <v>0.1079513473762384</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3133803434116523</v>
       </c>
       <c r="E89" t="n">
-        <v>1.476015013814991</v>
+        <v>1.459750869048827</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.08451282163038</v>
+        <v>-1.673881286327043</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1262812934745478</v>
+        <v>0.1138267132553524</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2536314714980664</v>
       </c>
       <c r="E90" t="n">
-        <v>1.503061336304707</v>
+        <v>1.510636551109917</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.954073965859687</v>
+        <v>-1.638085041808699</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1144579811557866</v>
+        <v>0.1214452324286124</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2007152920404459</v>
       </c>
       <c r="E91" t="n">
-        <v>1.588321537786641</v>
+        <v>1.592289681709564</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.591559072745004</v>
+        <v>-1.31203974563949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1276926499205428</v>
+        <v>0.133826622166598</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1552528769372665</v>
       </c>
       <c r="E92" t="n">
-        <v>1.660174462952299</v>
+        <v>1.682361547410363</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.307958156470692</v>
+        <v>-1.049336541512597</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1287722095183868</v>
+        <v>0.1696033492232856</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1182826148666938</v>
       </c>
       <c r="E93" t="n">
-        <v>1.719147083266392</v>
+        <v>1.721872818770779</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.032774145535503</v>
+        <v>-0.7839728633937284</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1681743050776649</v>
+        <v>0.1747486400523322</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08958706259676957</v>
       </c>
       <c r="E94" t="n">
-        <v>1.801055160708919</v>
+        <v>1.829224957085205</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7696135009010489</v>
+        <v>-0.5685647383039097</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1529811810198707</v>
+        <v>0.1309911009403963</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0690066912729073</v>
       </c>
       <c r="E95" t="n">
-        <v>1.809081106894247</v>
+        <v>1.834039060986777</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5351154685496928</v>
+        <v>-0.3747441456469119</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1357082274543657</v>
+        <v>0.1633168968080433</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05515270581046632</v>
       </c>
       <c r="E96" t="n">
-        <v>1.781047932749553</v>
+        <v>1.867868921243285</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3325717903738442</v>
+        <v>-0.2029203421968328</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05606844500866482</v>
+        <v>0.08998125447721034</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04485838008835856</v>
       </c>
       <c r="E97" t="n">
-        <v>1.68323434389879</v>
+        <v>1.776553427282596</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1490637365193025</v>
+        <v>-0.02269244174184215</v>
       </c>
       <c r="G97" t="n">
-        <v>0.07466126691865262</v>
+        <v>0.1348988627163211</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03305747370414606</v>
       </c>
       <c r="E98" t="n">
-        <v>1.613527119673931</v>
+        <v>1.719206245572037</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.01826990691474198</v>
+        <v>0.1283983281435403</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02604448977506492</v>
+        <v>0.07901854023334075</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01592715309336067</v>
       </c>
       <c r="E99" t="n">
-        <v>1.511582538079554</v>
+        <v>1.61072148456089</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09913677375587543</v>
+        <v>0.2016260145145888</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02107127258304581</v>
+        <v>0.02096811998249083</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.00859942742017457</v>
       </c>
       <c r="E100" t="n">
-        <v>1.313737078876695</v>
+        <v>1.447129170564202</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1562845114051382</v>
+        <v>0.2322598904249368</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02898308759563706</v>
+        <v>0.09699046289439903</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03649648724362795</v>
       </c>
       <c r="E101" t="n">
-        <v>1.172677674361788</v>
+        <v>1.288593708898433</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2315298153748694</v>
+        <v>0.2843763924117049</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09738515757843956</v>
+        <v>-0.04035086517505192</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.06498840707822394</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9626216032104338</v>
+        <v>1.106101782891354</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2301611533762467</v>
+        <v>0.2654767804013128</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07452106116918512</v>
+        <v>-0.004838233771396245</v>
       </c>
     </row>
   </sheetData>
